--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject19.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject19.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.8826052318181461</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0</v>
+        <v>0.51738933557802369</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -326,21 +326,21 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.90305115931776381</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.69901011804616475</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.60308643342959767</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.82702929826381189</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.97769887170716752</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.62724046827073465</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.60417867876586751</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.90074157711778113</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.68849548394821714</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.64948629476909014</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.57399100204515241</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0</v>
+        <v>0.66018622922494719</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>0</v>
+        <v>0.56244636803115522</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.75433538859237403</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.62521681955151509</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.92311420793977828</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.85270896557483278</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.99605995809517256</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.65917186214031742</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.52377641706816536</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.81315035493028698</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.97807014134093362</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0</v>
+        <v>0.52409410544051149</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.77916643120183382</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.72060599942938985</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.98801149724034154</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.81660961721349112</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.81076410313883052</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0</v>
+        <v>0.98534230230261777</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0</v>
+        <v>0.70671281544471731</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.54586444405921808</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>0</v>
+        <v>0.92069686640076442</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0</v>
+        <v>0.74620611674450266</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="0">
-        <v>0</v>
+        <v>0.60395868038199962</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.75854777073683333</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.63580074451702606</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0</v>
+        <v>0.99286658248450244</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>0</v>
+        <v>0.9261760489513523</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>0.92264252301852145</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.53131617074820814</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.50170889938363739</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.79975262878532627</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.55705951415679933</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2744,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="AW13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="0">
         <v>0</v>
       </c>
       <c r="AY13" s="0">
-        <v>0</v>
+        <v>0.89973937412633587</v>
       </c>
       <c r="AZ13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0</v>
+        <v>0.97863711090914574</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.99143662812835243</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.61566911781896461</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.50438026286748605</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.91596729810985811</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.74683610920637444</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0</v>
+        <v>0.58679197027085872</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0</v>
+        <v>0.53501010850611697</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>0.94794990018312264</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.56036588898974526</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.65935925653864391</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.52127243928032208</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.84762696253372671</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3460,22 +3460,22 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.85354598912378665</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.55398947097491646</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>0</v>
+        <v>0.86339646268069958</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>0</v>
+        <v>0.8412381588218325</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.83241518789634172</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.77553070745852226</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.51255475706171749</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.53137541432304514</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.5069768878082157</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.66536881238870316</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0</v>
+        <v>0.87549796355850362</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0</v>
+        <v>0.81887219947423795</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0</v>
+        <v>0.8173879111416873</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.61108836085301688</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.92782073472928617</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AW20" s="0">
-        <v>0</v>
+        <v>0.93056166796704365</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.90810573988514898</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.96211086444291771</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.77882479615922517</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.52474296767187967</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>0.68050065357890299</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.96882948159630866</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.90917179661219705</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.6518709407193537</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.9302854267422116</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="0">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>0</v>
+        <v>0.69445363805402938</v>
       </c>
     </row>
     <row r="23">
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.60199136958800548</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.88694885379499389</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.51617824486151243</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.5003148825327518</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.84356072840295115</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.78359896730040779</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.73745121815893022</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>0</v>
+        <v>0.62313308462366201</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.77048462569154053</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.78705826992620498</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.69223636691086088</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0</v>
+        <v>0.73268861540804964</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.94205158453578752</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.55596976211865434</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>0</v>
+        <v>0.97634692269578782</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.70535604790108053</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.75415586920493827</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.68493036579782962</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5717,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0</v>
+        <v>0.70858254032776569</v>
       </c>
       <c r="K28" s="0">
-        <v>0</v>
+        <v>0.91412399144573597</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5765,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.58391427581911737</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.50469531023683112</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL28" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>0.69109863346920108</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.70363777390732185</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.69363281327473703</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.71384011574152462</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
+        <v>0.75319931602823664</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.75231321806494544</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.92786796089547774</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.77837274884210783</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>0</v>
+        <v>0.53117077887703001</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.87189487598687454</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.9778182120825295</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.70660671085157989</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>0</v>
+        <v>0.5154359199994667</v>
       </c>
       <c r="AK31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0</v>
+        <v>0.58058347966461721</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="BE31" s="0">
-        <v>0</v>
+        <v>0.96497099328811586</v>
       </c>
       <c r="BF31" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0</v>
+        <v>0.97084014442906108</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.50644387304156868</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.97436848365537898</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.81560024111962925</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.81871577183885025</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.7575044567932494</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.7458157808228485</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6864,13 +6864,13 @@
         <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="0">
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="0">
-        <v>0</v>
+        <v>0.77042736023097391</v>
       </c>
       <c r="BJ33" s="0">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.80780813977502042</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.64006254341780999</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.56792286919846502</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.71665497526476218</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0</v>
+        <v>0.91908907907735826</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.81894703220245346</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.91421846868868284</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.85867555700359932</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>0</v>
+        <v>0.69845596662144827</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.7196078553106362</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.68063606266214993</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.69562879166756431</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.53031424579585895</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.78495871404585182</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.86541740915332921</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>0</v>
+        <v>0.76518326687839866</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.93340445922798554</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.90812004840656124</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.77383780834339899</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.74868223612852813</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
+        <v>0.69369325547555116</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>0</v>
+        <v>0.94610914775733823</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.58462982095501626</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.72644305067724513</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.82506586848779517</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.93418254698059222</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.62366323173350646</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.91224927706180936</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.77091696623741501</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="BG40" s="0">
-        <v>0</v>
+        <v>0.91646392048962211</v>
       </c>
       <c r="BH40" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.97238197916258473</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.87991759495770339</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.76656507933121376</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.59606611458431347</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.64588630697762905</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.6879569331687847</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>0</v>
+        <v>0.65883863384557451</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.53525148650305909</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.75750408778978651</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.70630998237071985</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.9696924728690155</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.87071057854974931</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.73040718066897181</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.73276642777103373</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.83941022766660844</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>0</v>
+        <v>0.70087890297189137</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="BC44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.83130077646293565</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.95313935069016664</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.98054348152209125</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.70455650090305366</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>0</v>
+        <v>0.82603221735995302</v>
       </c>
       <c r="Y46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.98788130036864308</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.84487087184797838</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.64407929940611375</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.50392558398109655</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>0</v>
+        <v>0.78093009124827062</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.61656100146443227</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.85808228611643067</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.72074716611892153</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.86345227210528719</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,16 +9945,16 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.92405001127370689</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.6714258059211845</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.83761493201502712</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="BD48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="0">
         <v>0</v>
@@ -9993,13 +9993,13 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>0</v>
+        <v>0.95196917709792683</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0</v>
+        <v>0.56816350549638728</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0</v>
+        <v>0.75579381936669809</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>0</v>
+        <v>0.79380535965505628</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.69548578628272217</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.55620824392237622</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.91083829740750022</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="BO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP49" s="0">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="0">
-        <v>0</v>
+        <v>0.68580841237484114</v>
       </c>
       <c r="AE50" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0</v>
+        <v>0.89582788341446551</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="BO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP50" s="0">
         <v>0</v>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="0">
-        <v>0</v>
+        <v>0.88232693749579094</v>
       </c>
       <c r="N51" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.70239541137286476</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.60546505992083599</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.89018431125615616</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.85070377832658128</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.83268967702250962</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.58192429844285032</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>0</v>
+        <v>0.80395143027626625</v>
       </c>
       <c r="K53" s="0">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>0</v>
+        <v>0.72085923973005084</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
@@ -10993,16 +10993,16 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.8009327441224976</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.71311721427342023</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.81277739728431486</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>0</v>
+        <v>0.8427195444790937</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.7236327951717294</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.93644275327639104</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.80231026351696133</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.55238046313517031</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.51651418822646611</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="BN55" s="0">
-        <v>0</v>
+        <v>0.87065742866261209</v>
       </c>
       <c r="BO55" s="0">
         <v>0</v>
@@ -11500,13 +11500,13 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>0</v>
+        <v>0.89747760597070747</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>0.89751866779933176</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.55364879911777298</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.91174887407242067</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,13 +11626,13 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0</v>
+        <v>0.81293022241545676</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>0</v>
+        <v>0.52458322606834296</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>0</v>
+        <v>0.9113537330607393</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.91251390257845566</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0</v>
+        <v>0.77497244472807059</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.835695656587508</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.88041832949435672</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="BO58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP58" s="0">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>0</v>
+        <v>0.59393652669335817</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12241,13 +12241,13 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0</v>
+        <v>0.51053962279623888</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.66787336247149165</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.83142135873706691</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.95321803737050959</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.66022038422016061</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.81035923781786434</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="0">
-        <v>0</v>
+        <v>0.60559670662215936</v>
       </c>
       <c r="AH61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.88999194211024535</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.77566000632635568</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.5231974679055289</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.55486107608753932</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>0</v>
+        <v>0.64247960425960882</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.91051356414978368</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.52371921025476165</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.86894119703439876</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12975,13 +12975,13 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0</v>
+        <v>0.60409869683391482</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.61586974700085917</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.56701666328080969</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.97339599453998815</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.98745003113613494</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AV64" s="0">
-        <v>0</v>
+        <v>0.86029068186639712</v>
       </c>
       <c r="AW64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.79819342674389415</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.71675526089742869</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.60425330668532418</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0</v>
+        <v>0.87317668712873608</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.65144754732534993</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.67397622813958746</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.94412345643432383</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.59163123324669864</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.70208239102497405</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>0</v>
+        <v>0.79059035160006874</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.54472470684166074</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.87517964869675491</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.85222811428511247</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0</v>
+        <v>0.80883043584163494</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13868,10 +13868,10 @@
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.6444662058816677</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.87182475753486177</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>0</v>
+        <v>0.82796981226903754</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.68178422874605671</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject19.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject19.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.8826052318181461</v>
+        <v>0.97769887170716752</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0.51738933557802369</v>
+        <v>0.94794990018312264</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0.90305115931776381</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.69901011804616475</v>
+        <v>0.87182475753486177</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.60308643342959767</v>
+        <v>0.62724046827073465</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0.82702929826381189</v>
+        <v>0.99143662812835243</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.60417867876586751</v>
+        <v>0.68849548394821714</v>
       </c>
       <c r="E3" s="0">
         <v>0.90074157711778113</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0.64948629476909014</v>
+        <v>0.92264252301852145</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0.57399100204515241</v>
+        <v>0.90810573988514898</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0.66018622922494719</v>
+        <v>0.69369325547555116</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.75433538859237403</v>
+        <v>0.90074157711778113</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.62521681955151509</v>
+        <v>0.85270896557483278</v>
       </c>
       <c r="G5" s="0">
         <v>0.92311420793977828</v>
@@ -1179,7 +1179,7 @@
         <v>0.99605995809517256</v>
       </c>
       <c r="H6" s="0">
-        <v>0.65917186214031742</v>
+        <v>0.77916643120183382</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.52377641706816536</v>
+        <v>0.92311420793977828</v>
       </c>
       <c r="F7" s="0">
-        <v>0.81315035493028698</v>
+        <v>0.99605995809517256</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0.52409410544051149</v>
+        <v>0.87317668712873608</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.77916643120183382</v>
       </c>
       <c r="G8" s="0">
-        <v>0.72060599942938985</v>
+        <v>0.97807014134093362</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.81076410313883052</v>
+        <v>0.98801149724034154</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.70671281544471731</v>
+        <v>0.75319931602823664</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.54586444405921808</v>
+        <v>0.81660961721349112</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="0">
-        <v>0.60395868038199962</v>
+        <v>0.80395143027626625</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.75854777073683333</v>
       </c>
       <c r="M11" s="0">
-        <v>0.63580074451702606</v>
+        <v>0.79975262878532627</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.9261760489513523</v>
+        <v>0.94610914775733823</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.53131617074820814</v>
+        <v>0.75854777073683333</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.50170889938363739</v>
+        <v>0.55705951415679933</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.61566911781896461</v>
+        <v>0.91596729810985811</v>
       </c>
       <c r="P14" s="0">
-        <v>0.50438026286748605</v>
+        <v>0.56036588898974526</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.58679197027085872</v>
+        <v>0.97084014442906108</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0.53501010850611697</v>
+        <v>0.89747760597070747</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0.56036588898974526</v>
       </c>
       <c r="O16" s="0">
-        <v>0.65935925653864391</v>
+        <v>0.74683610920637444</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.52127243928032208</v>
+        <v>0.85354598912378665</v>
       </c>
       <c r="R16" s="0">
         <v>0.84762696253372671</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.55398947097491646</v>
+        <v>0.77553070745852226</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>0.86339646268069958</v>
+        <v>0.89751866779933176</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.83241518789634172</v>
+        <v>0.84762696253372671</v>
       </c>
       <c r="Q18" s="0">
         <v>0.77553070745852226</v>
@@ -3687,7 +3687,7 @@
         <v>0.51255475706171749</v>
       </c>
       <c r="T18" s="0">
-        <v>0.53137541432304514</v>
+        <v>0.61108836085301688</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.5069768878082157</v>
+        <v>0.51255475706171749</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.66536881238870316</v>
+        <v>0.96211086444291771</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0.81887219947423795</v>
+        <v>0.8427195444790937</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0.8173879111416873</v>
+        <v>0.92069686640076442</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.92782073472928617</v>
+        <v>0.96882948159630866</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.77882479615922517</v>
+        <v>0.90917179661219705</v>
       </c>
       <c r="W21" s="0">
-        <v>0.52474296767187967</v>
+        <v>0.60199136958800548</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>0.68050065357890299</v>
+        <v>0.98534230230261777</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.6518709407193537</v>
+        <v>0.88694885379499389</v>
       </c>
       <c r="X22" s="0">
         <v>0.9302854267422116</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>0.69445363805402938</v>
+        <v>0.82796981226903754</v>
       </c>
     </row>
     <row r="23">
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.51617824486151243</v>
+        <v>0.78359896730040779</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.5003148825327518</v>
+        <v>0.77048462569154053</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.84356072840295115</v>
+        <v>0.9302854267422116</v>
       </c>
       <c r="W24" s="0">
         <v>0.78359896730040779</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.73745121815893022</v>
+        <v>0.78705826992620498</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>0.62313308462366201</v>
+        <v>0.82603221735995302</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.69223636691086088</v>
+        <v>0.94205158453578752</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.73268861540804964</v>
+        <v>0.76518326687839866</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.55596976211865434</v>
+        <v>0.58391427581911737</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0.68493036579782962</v>
+        <v>0.70208239102497405</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5717,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0.70858254032776569</v>
+        <v>0.74620611674450266</v>
       </c>
       <c r="K28" s="0">
-        <v>0.91412399144573597</v>
+        <v>0.99286658248450244</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0.58391427581911737</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.50469531023683112</v>
+        <v>0.70535604790108053</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0.69109863346920108</v>
+        <v>0.87549796355850362</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.70363777390732185</v>
+        <v>0.75415586920493827</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.69363281327473703</v>
+        <v>0.75231321806494544</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.71384011574152462</v>
+        <v>0.87189487598687454</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.92786796089547774</v>
+        <v>0.9778182120825295</v>
       </c>
       <c r="AF30" s="0">
         <v>0.77837274884210783</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>0.53117077887703001</v>
+        <v>0.68580841237484114</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.70660671085157989</v>
+        <v>0.81871577183885025</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>0.5154359199994667</v>
+        <v>0.69845596662144827</v>
       </c>
       <c r="AK31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0.58058347966461721</v>
+        <v>0.78093009124827062</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.50644387304156868</v>
+        <v>0.77837274884210783</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.81871577183885025</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.7575044567932494</v>
+        <v>0.97436848365537898</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.80780813977502042</v>
+        <v>0.81560024111962925</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.64006254341780999</v>
+        <v>0.7458157808228485</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.56792286919846502</v>
+        <v>0.81894703220245346</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.71665497526476218</v>
+        <v>0.7196078553106362</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0.7196078553106362</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.68063606266214993</v>
+        <v>0.91421846868868284</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.69562879166756431</v>
+        <v>0.93340445922798554</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.53031424579585895</v>
+        <v>0.85867555700359932</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.78495871404585182</v>
+        <v>0.90812004840656124</v>
       </c>
       <c r="AM37" s="0">
         <v>0.86541740915332921</v>
@@ -7867,7 +7867,7 @@
         <v>0.77383780834339899</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.74868223612852813</v>
+        <v>0.93418254698059222</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.58462982095501626</v>
+        <v>0.86541740915332921</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.72644305067724513</v>
+        <v>0.77383780834339899</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8276,13 +8276,13 @@
         <v>0.93418254698059222</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.62366323173350646</v>
+        <v>0.82506586848779517</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.91224927706180936</v>
+        <v>0.97238197916258473</v>
       </c>
       <c r="AP40" s="0">
         <v>0.77091696623741501</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.59606611458431347</v>
+        <v>0.77091696623741501</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.64588630697762905</v>
+        <v>0.87991759495770339</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.6879569331687847</v>
+        <v>0.75750408778978651</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>0.65883863384557451</v>
+        <v>0.72085923973005084</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.53525148650305909</v>
+        <v>0.76656507933121376</v>
       </c>
       <c r="AP43" s="0">
         <v>0.75750408778978651</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.70630998237071985</v>
+        <v>0.73040718066897181</v>
       </c>
       <c r="AS43" s="0">
         <v>0.9696924728690155</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0.87071057854974931</v>
+        <v>0.95321803737050959</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.73276642777103373</v>
+        <v>0.95313935069016664</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.83941022766660844</v>
+        <v>0.98788130036864308</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>0.70087890297189137</v>
+        <v>0.79380535965505628</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.83130077646293565</v>
+        <v>0.9696924728690155</v>
       </c>
       <c r="AR45" s="0">
         <v>0.95313935069016664</v>
@@ -9530,16 +9530,16 @@
         <v>0.98788130036864308</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.84487087184797838</v>
+        <v>0.98054348152209125</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.64407929940611375</v>
+        <v>0.85808228611643067</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.50392558398109655</v>
+        <v>0.92405001127370689</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.61656100146443227</v>
+        <v>0.70455650090305366</v>
       </c>
       <c r="AT47" s="0">
         <v>0.85808228611643067</v>
@@ -9948,7 +9948,7 @@
         <v>0.92405001127370689</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.6714258059211845</v>
+        <v>0.72074716611892153</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0.56816350549638728</v>
+        <v>0.86029068186639712</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0.75579381936669809</v>
+        <v>0.93056166796704365</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.69548578628272217</v>
+        <v>0.86345227210528719</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.55620824392237622</v>
+        <v>0.83761493201502712</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0.89582788341446551</v>
+        <v>0.91908907907735826</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="0">
-        <v>0.88232693749579094</v>
+        <v>0.89973937412633587</v>
       </c>
       <c r="N51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.70239541137286476</v>
+        <v>0.91083829740750022</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.60546505992083599</v>
+        <v>0.85070377832658128</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0.83268967702250962</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.58192429844285032</v>
+        <v>0.7236327951717294</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.8009327441224976</v>
+        <v>0.83268967702250962</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.71311721427342023</v>
+        <v>0.93644275327639104</v>
       </c>
       <c r="BC53" s="0">
         <v>0.81277739728431486</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.80231026351696133</v>
+        <v>0.91174887407242067</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.55238046313517031</v>
+        <v>0.81277739728431486</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.51651418822646611</v>
+        <v>0.91251390257845566</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0.55364879911777298</v>
+        <v>0.89018431125615616</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>0.52458322606834296</v>
+        <v>0.56244636803115522</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>0.9113537330607393</v>
+        <v>0.96497099328811586</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0.77497244472807059</v>
+        <v>0.97863711090914574</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>0.59393652669335817</v>
+        <v>0.91646392048962211</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12241,13 +12241,13 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0.51053962279623888</v>
+        <v>0.81293022241545676</v>
       </c>
       <c r="BE59" s="0">
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.66787336247149165</v>
+        <v>0.835695656587508</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.83142135873706691</v>
+        <v>0.88999194211024535</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.66022038422016061</v>
+        <v>0.88041832949435672</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="0">
-        <v>0.60559670662215936</v>
+        <v>0.77042736023097391</v>
       </c>
       <c r="AH61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0.88999194211024535</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.77566000632635568</v>
+        <v>0.81035923781786434</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.5231974679055289</v>
+        <v>0.91051356414978368</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.55486107608753932</v>
+        <v>0.61586974700085917</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>0.64247960425960882</v>
+        <v>0.95196917709792683</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.52371921025476165</v>
+        <v>0.56701666328080969</v>
       </c>
       <c r="BL62" s="0">
         <v>0.86894119703439876</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0.60409869683391482</v>
+        <v>0.97634692269578782</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.79819342674389415</v>
+        <v>0.86894119703439876</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.71675526089742869</v>
+        <v>0.97339599453998815</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.60425330668532418</v>
+        <v>0.67397622813958746</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.65144754732534993</v>
+        <v>0.98745003113613494</v>
       </c>
       <c r="BL65" s="0">
         <v>0.67397622813958746</v>
@@ -13510,7 +13510,7 @@
         <v>0.94412345643432383</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.59163123324669864</v>
+        <v>0.6444662058816677</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>0.79059035160006874</v>
+        <v>0.87065742866261209</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.54472470684166074</v>
+        <v>0.94412345643432383</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.85222811428511247</v>
+        <v>0.90305115931776381</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0.80883043584163494</v>
+        <v>0.8412381588218325</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.68178422874605671</v>
+        <v>0.87517964869675491</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>
